--- a/netforce_account_report/netforce_account_report/reports/account_gl_summary.xlsx
+++ b/netforce_account_report/netforce_account_report/reports/account_gl_summary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="198" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="99" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>General Ledger [Summary]</t>
   </si>
@@ -24,6 +24,15 @@
   </si>
   <si>
     <t>From {{fmt_date date_from}} to {{fmt_date date_to}}</t>
+  </si>
+  <si>
+    <t>{{#if track_name}}</t>
+  </si>
+  <si>
+    <t>Tracking: {{track_name}}</t>
+  </si>
+  <si>
+    <t>{{/if}}</t>
   </si>
   <si>
     <t>Account</t>
@@ -73,68 +82,74 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="#,##0.00_);\(#,##0.00\)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00_);\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="9">
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <sz val="10"/>
-    </font>
-    <font>
+  <fonts count="10">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
-      <color rgb="00800000"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00800000"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <color rgb="FF800000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF800000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF800000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
-      <color rgb="00FFFFFF"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
-      <sz val="10"/>
       <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -146,19 +161,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C0C0C0"/>
-        <bgColor rgb="00CCCCFF"/>
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00000080"/>
-        <bgColor rgb="00000080"/>
+        <fgColor rgb="FF000080"/>
+        <bgColor rgb="FF000080"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -167,72 +182,95 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+  <cellXfs count="14">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -242,25 +280,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B9" activeCellId="0" pane="topLeft" sqref="B9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2980392156863"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="22.078431372549"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2959183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="22.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.77551020408163"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="1" s="3">
+    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2" s="3">
+    <row r="2" s="3" customFormat="true" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -268,7 +307,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -276,7 +315,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
         <v>2</v>
@@ -284,73 +323,94 @@
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6" s="8">
-      <c r="A6" s="7" t="s">
+    <row r="5" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" s="9" customFormat="true" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="s">
+      <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="s">
+      <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="9" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="s">
+      <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
-      <c r="A10" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="11" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="12" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="B12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/netforce_account_report/netforce_account_report/reports/account_gl_summary.xlsx
+++ b/netforce_account_report/netforce_account_report/reports/account_gl_summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>General Ledger [Summary]</t>
   </si>
@@ -29,10 +29,16 @@
     <t>{{#if track_name}}</t>
   </si>
   <si>
-    <t>Tracking: {{track_name}}</t>
+    <t>Tracking-1: {{track_name}}</t>
   </si>
   <si>
     <t>{{/if}}</t>
+  </si>
+  <si>
+    <t>{{#if track2_name}}</t>
+  </si>
+  <si>
+    <t>Tracking-2: {{track2_name}}</t>
   </si>
   <si>
     <t>Account</t>
@@ -85,7 +91,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="#,##0.00_);\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -121,12 +127,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF800000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -206,7 +206,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -235,15 +235,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -251,15 +247,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -280,10 +276,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -343,70 +339,97 @@
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" s="9" customFormat="true" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+    <row r="8" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" s="8" customFormat="true" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="C11" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="D11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="10" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="10" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="C13" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="12" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="12" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
+      <c r="C15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
